--- a/output/excel/GR 10.xlsx
+++ b/output/excel/GR 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\Projects\PyCharm\SchoolProjects\ClassRegister\output\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C75D5-DA67-4A2D-AE51-892B3EDAD1AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF24CD-EA73-417D-9836-58608C5A212F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7464" yWindow="288" windowWidth="15576" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
